--- a/input/Poverty5Y2022Municipios_pivoted.xlsx
+++ b/input/Poverty5Y2022Municipios_pivoted.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Poverty5Y2022Municipios_pivoted" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/input/Poverty5Y2022Municipios_pivoted.xlsx
+++ b/input/Poverty5Y2022Municipios_pivoted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>municipio</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>under_18y_below_poverty_level</t>
+  </si>
+  <si>
+    <t>under_16y_total_population</t>
+  </si>
+  <si>
+    <t>under_16y_percent_below_poverty_level</t>
+  </si>
+  <si>
+    <t>under_16y_below_poverty_level</t>
+  </si>
+  <si>
+    <t>under_17y_total_population</t>
+  </si>
+  <si>
+    <t>under_17y_percent_below_poverty_level</t>
+  </si>
+  <si>
+    <t>under_17y_below_poverty_level</t>
+  </si>
+  <si>
+    <t>under_17y_total_population_2022</t>
   </si>
   <si>
     <t>Adjuntas</t>
@@ -337,9 +358,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:G79" totalsRowShown="0">
-  <autoFilter ref="A1:G79"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:N79" totalsRowShown="0">
+  <autoFilter ref="A1:N79"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="municipio" dataDxfId="0"/>
     <tableColumn id="2" name="total_population" dataDxfId="1"/>
     <tableColumn id="3" name="percent_below_poverty_level" dataDxfId="2"/>
@@ -347,6 +368,13 @@
     <tableColumn id="5" name="under_18y_total_population" dataDxfId="1"/>
     <tableColumn id="6" name="under_18y_percent_below_poverty_level" dataDxfId="2"/>
     <tableColumn id="7" name="under_18y_below_poverty_level" dataDxfId="1"/>
+    <tableColumn id="8" name="under_16y_total_population" dataDxfId="1"/>
+    <tableColumn id="9" name="under_16y_percent_below_poverty_level" dataDxfId="2"/>
+    <tableColumn id="10" name="under_16y_below_poverty_level" dataDxfId="1"/>
+    <tableColumn id="11" name="under_17y_total_population" dataDxfId="1"/>
+    <tableColumn id="12" name="under_17y_percent_below_poverty_level" dataDxfId="2"/>
+    <tableColumn id="13" name="under_17y_below_poverty_level" dataDxfId="1"/>
+    <tableColumn id="14" name="under_17y_total_population_2022" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -637,13 +665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,10 +693,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>17929</v>
@@ -680,7 +729,7 @@
         <v>11363</v>
       </c>
       <c r="E2" s="2">
-        <v>3254</v>
+        <v>3277</v>
       </c>
       <c r="F2" s="3">
         <v>0.763</v>
@@ -688,10 +737,23 @@
       <c r="G2" s="2">
         <v>2482</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2">
+        <v>2861</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>2977</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>37866</v>
@@ -703,7 +765,7 @@
         <v>17874</v>
       </c>
       <c r="E3" s="2">
-        <v>6094</v>
+        <v>6159</v>
       </c>
       <c r="F3" s="3">
         <v>0.5760000000000001</v>
@@ -711,10 +773,23 @@
       <c r="G3" s="2">
         <v>3512</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2">
+        <v>5241</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2">
+        <v>5739</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>54056</v>
@@ -726,7 +801,7 @@
         <v>26316</v>
       </c>
       <c r="E4" s="2">
-        <v>9473</v>
+        <v>9511</v>
       </c>
       <c r="F4" s="3">
         <v>0.602</v>
@@ -734,10 +809,23 @@
       <c r="G4" s="2">
         <v>5699</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2">
+        <v>8208</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
+        <v>8759</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>24013</v>
@@ -749,7 +837,7 @@
         <v>10305</v>
       </c>
       <c r="E5" s="2">
-        <v>4141</v>
+        <v>4166</v>
       </c>
       <c r="F5" s="3">
         <v>0.649</v>
@@ -757,10 +845,23 @@
       <c r="G5" s="2">
         <v>2689</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2">
+        <v>3542</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>3827</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>24528</v>
@@ -780,10 +881,23 @@
       <c r="G6" s="2">
         <v>2503</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2">
+        <v>3503</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>4109</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>25360</v>
@@ -795,7 +909,7 @@
         <v>11819</v>
       </c>
       <c r="E7" s="2">
-        <v>4125</v>
+        <v>4166</v>
       </c>
       <c r="F7" s="3">
         <v>0.579</v>
@@ -803,10 +917,23 @@
       <c r="G7" s="2">
         <v>2387</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2">
+        <v>3431</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>3860</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>86287</v>
@@ -818,7 +945,7 @@
         <v>38784</v>
       </c>
       <c r="E8" s="2">
-        <v>14679</v>
+        <v>14721</v>
       </c>
       <c r="F8" s="3">
         <v>0.5920000000000001</v>
@@ -826,10 +953,23 @@
       <c r="G8" s="2">
         <v>8688</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2">
+        <v>12490</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>13503</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>13606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>15774</v>
@@ -849,10 +989,23 @@
       <c r="G9" s="2">
         <v>2213</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2">
+        <v>2619</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>2675</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>22590</v>
@@ -872,10 +1025,23 @@
       <c r="G10" s="2">
         <v>2450</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2">
+        <v>3547</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>3908</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>28717</v>
@@ -887,7 +1053,7 @@
         <v>14345</v>
       </c>
       <c r="E11" s="2">
-        <v>5848</v>
+        <v>5934</v>
       </c>
       <c r="F11" s="3">
         <v>0.6759999999999999</v>
@@ -895,10 +1061,23 @@
       <c r="G11" s="2">
         <v>3954</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2">
+        <v>5156</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>5234</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>179387</v>
@@ -910,7 +1089,7 @@
         <v>62443</v>
       </c>
       <c r="E12" s="2">
-        <v>29908</v>
+        <v>30190</v>
       </c>
       <c r="F12" s="3">
         <v>0.514</v>
@@ -918,10 +1097,23 @@
       <c r="G12" s="2">
         <v>15387</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2">
+        <v>26018</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>28577</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2">
+        <v>28104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
         <v>46790</v>
@@ -933,7 +1125,7 @@
         <v>19720</v>
       </c>
       <c r="E13" s="2">
-        <v>7571</v>
+        <v>7629</v>
       </c>
       <c r="F13" s="3">
         <v>0.463</v>
@@ -941,10 +1133,23 @@
       <c r="G13" s="2">
         <v>3502</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2">
+        <v>6374</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>7129</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
         <v>125961</v>
@@ -956,7 +1161,7 @@
         <v>46638</v>
       </c>
       <c r="E14" s="2">
-        <v>21430</v>
+        <v>21673</v>
       </c>
       <c r="F14" s="3">
         <v>0.508</v>
@@ -964,10 +1169,23 @@
       <c r="G14" s="2">
         <v>10876</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2">
+        <v>18437</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>19678</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2">
+        <v>20055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>32541</v>
@@ -979,7 +1197,7 @@
         <v>13563</v>
       </c>
       <c r="E15" s="2">
-        <v>5384</v>
+        <v>5507</v>
       </c>
       <c r="F15" s="3">
         <v>0.545</v>
@@ -987,10 +1205,23 @@
       <c r="G15" s="2">
         <v>2933</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2">
+        <v>4701</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>5209</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>42034</v>
@@ -1002,7 +1233,7 @@
         <v>15289</v>
       </c>
       <c r="E16" s="2">
-        <v>7687</v>
+        <v>7836</v>
       </c>
       <c r="F16" s="3">
         <v>0.541</v>
@@ -1010,10 +1241,23 @@
       <c r="G16" s="2">
         <v>4160</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2">
+        <v>6989</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>7190</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2">
+        <v>7413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
         <v>153371</v>
@@ -1025,7 +1269,7 @@
         <v>47473</v>
       </c>
       <c r="E17" s="2">
-        <v>25240</v>
+        <v>25480</v>
       </c>
       <c r="F17" s="3">
         <v>0.471</v>
@@ -1033,10 +1277,23 @@
       <c r="G17" s="2">
         <v>11887</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2">
+        <v>21870</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>23283</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>23675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
         <v>23025</v>
@@ -1048,7 +1305,7 @@
         <v>10501</v>
       </c>
       <c r="E18" s="2">
-        <v>4115</v>
+        <v>4150</v>
       </c>
       <c r="F18" s="3">
         <v>0.624</v>
@@ -1056,10 +1313,23 @@
       <c r="G18" s="2">
         <v>2567</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2">
+        <v>3617</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>3877</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
         <v>41481</v>
@@ -1079,10 +1349,23 @@
       <c r="G19" s="2">
         <v>3542</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2">
+        <v>5793</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>6455</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
         <v>11181</v>
@@ -1094,7 +1377,7 @@
         <v>4670</v>
       </c>
       <c r="E20" s="2">
-        <v>1750</v>
+        <v>1812</v>
       </c>
       <c r="F20" s="3">
         <v>0.662</v>
@@ -1102,10 +1385,23 @@
       <c r="G20" s="2">
         <v>1158</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2">
+        <v>1658</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>1805</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2">
         <v>16872</v>
@@ -1117,7 +1413,7 @@
         <v>9403</v>
       </c>
       <c r="E21" s="2">
-        <v>3002</v>
+        <v>3047</v>
       </c>
       <c r="F21" s="3">
         <v>0.6559999999999999</v>
@@ -1125,10 +1421,23 @@
       <c r="G21" s="2">
         <v>1969</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2">
+        <v>2686</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>2972</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
         <v>39700</v>
@@ -1140,7 +1449,7 @@
         <v>15496</v>
       </c>
       <c r="E22" s="2">
-        <v>7168</v>
+        <v>7225</v>
       </c>
       <c r="F22" s="3">
         <v>0.476</v>
@@ -1148,10 +1457,23 @@
       <c r="G22" s="2">
         <v>3410</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2">
+        <v>6246</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>6402</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
         <v>34435</v>
@@ -1163,7 +1485,7 @@
         <v>17166</v>
       </c>
       <c r="E23" s="2">
-        <v>6095</v>
+        <v>6172</v>
       </c>
       <c r="F23" s="3">
         <v>0.591</v>
@@ -1171,10 +1493,23 @@
       <c r="G23" s="2">
         <v>3603</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2">
+        <v>5377</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
+        <v>5897</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
         <v>18806</v>
@@ -1194,10 +1529,23 @@
       <c r="G24" s="2">
         <v>2369</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2">
+        <v>3062</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <v>3303</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
         <v>34257</v>
@@ -1209,7 +1557,7 @@
         <v>15796</v>
       </c>
       <c r="E25" s="2">
-        <v>6524</v>
+        <v>6583</v>
       </c>
       <c r="F25" s="3">
         <v>0.5600000000000001</v>
@@ -1217,10 +1565,23 @@
       <c r="G25" s="2">
         <v>3653</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2">
+        <v>5727</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
+        <v>5952</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
         <v>1182</v>
@@ -1232,7 +1593,7 @@
         <v>278</v>
       </c>
       <c r="E26" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F26" s="3">
         <v>0.218</v>
@@ -1240,10 +1601,23 @@
       <c r="G26" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2">
+        <v>173</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>249</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
         <v>35717</v>
@@ -1255,7 +1629,7 @@
         <v>10932</v>
       </c>
       <c r="E27" s="2">
-        <v>6803</v>
+        <v>6809</v>
       </c>
       <c r="F27" s="3">
         <v>0.359</v>
@@ -1263,10 +1637,23 @@
       <c r="G27" s="2">
         <v>2443</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="2">
+        <v>5722</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>6291</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2">
+        <v>6266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
         <v>31852</v>
@@ -1278,7 +1665,7 @@
         <v>13572</v>
       </c>
       <c r="E28" s="2">
-        <v>5686</v>
+        <v>5706</v>
       </c>
       <c r="F28" s="3">
         <v>0.657</v>
@@ -1286,10 +1673,23 @@
       <c r="G28" s="2">
         <v>3738</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2">
+        <v>5064</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>5207</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
         <v>11614</v>
@@ -1309,10 +1709,23 @@
       <c r="G29" s="2">
         <v>1444</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2">
+        <v>1830</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>2033</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
         <v>13527</v>
@@ -1324,7 +1737,7 @@
         <v>8971</v>
       </c>
       <c r="E30" s="2">
-        <v>2361</v>
+        <v>2498</v>
       </c>
       <c r="F30" s="3">
         <v>0.753</v>
@@ -1332,10 +1745,23 @@
       <c r="G30" s="2">
         <v>1779</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="2">
+        <v>2298</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2">
+        <v>2124</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
         <v>33948</v>
@@ -1347,7 +1773,7 @@
         <v>16304</v>
       </c>
       <c r="E31" s="2">
-        <v>6453</v>
+        <v>6537</v>
       </c>
       <c r="F31" s="3">
         <v>0.626</v>
@@ -1355,10 +1781,23 @@
       <c r="G31" s="2">
         <v>4041</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="2">
+        <v>5695</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2">
+        <v>5722</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2">
         <v>17590</v>
@@ -1370,7 +1809,7 @@
         <v>9394</v>
       </c>
       <c r="E32" s="2">
-        <v>3238</v>
+        <v>3263</v>
       </c>
       <c r="F32" s="3">
         <v>0.696</v>
@@ -1378,10 +1817,23 @@
       <c r="G32" s="2">
         <v>2253</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="2">
+        <v>2941</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>2858</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2">
         <v>89178</v>
@@ -1393,7 +1845,7 @@
         <v>22396</v>
       </c>
       <c r="E33" s="2">
-        <v>13261</v>
+        <v>13323</v>
       </c>
       <c r="F33" s="3">
         <v>0.365</v>
@@ -1401,10 +1853,23 @@
       <c r="G33" s="2">
         <v>4837</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="2">
+        <v>11297</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>13054</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2">
+        <v>12310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2">
         <v>40331</v>
@@ -1416,7 +1881,7 @@
         <v>12880</v>
       </c>
       <c r="E34" s="2">
-        <v>7271</v>
+        <v>7290</v>
       </c>
       <c r="F34" s="3">
         <v>0.427</v>
@@ -1424,10 +1889,23 @@
       <c r="G34" s="2">
         <v>3103</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="2">
+        <v>6351</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>6449</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2">
+        <v>6821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2">
         <v>38219</v>
@@ -1439,7 +1917,7 @@
         <v>15031</v>
       </c>
       <c r="E35" s="2">
-        <v>6236</v>
+        <v>6274</v>
       </c>
       <c r="F35" s="3">
         <v>0.476</v>
@@ -1447,10 +1925,23 @@
       <c r="G35" s="2">
         <v>2970</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="2">
+        <v>5427</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2">
+        <v>6109</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2">
         <v>15477</v>
@@ -1462,7 +1953,7 @@
         <v>6367</v>
       </c>
       <c r="E36" s="2">
-        <v>2265</v>
+        <v>2284</v>
       </c>
       <c r="F36" s="3">
         <v>0.499</v>
@@ -1470,10 +1961,23 @@
       <c r="G36" s="2">
         <v>1130</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="2">
+        <v>1913</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
+        <v>2089</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
         <v>50410</v>
@@ -1485,7 +1989,7 @@
         <v>18710</v>
       </c>
       <c r="E37" s="2">
-        <v>8382</v>
+        <v>8530</v>
       </c>
       <c r="F37" s="3">
         <v>0.5329999999999999</v>
@@ -1493,10 +1997,23 @@
       <c r="G37" s="2">
         <v>4470</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="2">
+        <v>7372</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2">
+        <v>7983</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2">
         <v>42415</v>
@@ -1508,7 +2025,7 @@
         <v>20452</v>
       </c>
       <c r="E38" s="2">
-        <v>7005</v>
+        <v>7121</v>
       </c>
       <c r="F38" s="3">
         <v>0.541</v>
@@ -1516,10 +2033,23 @@
       <c r="G38" s="2">
         <v>3790</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="2">
+        <v>6016</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2">
+        <v>6796</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
         <v>14691</v>
@@ -1539,10 +2069,23 @@
       <c r="G39" s="2">
         <v>1900</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="2">
+        <v>2671</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2">
+        <v>2634</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2">
         <v>45939</v>
@@ -1554,7 +2097,7 @@
         <v>20358</v>
       </c>
       <c r="E40" s="2">
-        <v>8878</v>
+        <v>8959</v>
       </c>
       <c r="F40" s="3">
         <v>0.532</v>
@@ -1562,10 +2105,23 @@
       <c r="G40" s="2">
         <v>4722</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="2">
+        <v>7548</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>8331</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2">
+        <v>8254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2">
         <v>36868</v>
@@ -1585,10 +2141,23 @@
       <c r="G41" s="2">
         <v>3435</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="2">
+        <v>6199</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2">
+        <v>6688</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2">
         <v>23152</v>
@@ -1608,10 +2177,23 @@
       <c r="G42" s="2">
         <v>2884</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="2">
+        <v>3215</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <v>3470</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2">
         <v>27679</v>
@@ -1623,7 +2205,7 @@
         <v>15493</v>
       </c>
       <c r="E43" s="2">
-        <v>4720</v>
+        <v>4773</v>
       </c>
       <c r="F43" s="3">
         <v>0.6829999999999999</v>
@@ -1631,10 +2213,23 @@
       <c r="G43" s="2">
         <v>3224</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="2">
+        <v>4083</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
+        <v>4282</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2">
         <v>8752</v>
@@ -1654,10 +2249,23 @@
       <c r="G44" s="2">
         <v>1194</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="2">
+        <v>1425</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <v>1508</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2">
         <v>35044</v>
@@ -1677,10 +2285,23 @@
       <c r="G45" s="2">
         <v>3026</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="2">
+        <v>5376</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2">
+        <v>5908</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2">
         <v>23537</v>
@@ -1692,7 +2313,7 @@
         <v>10675</v>
       </c>
       <c r="E46" s="2">
-        <v>4311</v>
+        <v>4344</v>
       </c>
       <c r="F46" s="3">
         <v>0.622</v>
@@ -1700,10 +2321,23 @@
       <c r="G46" s="2">
         <v>2683</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="2">
+        <v>3725</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2">
+        <v>4128</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2">
         <v>17681</v>
@@ -1715,7 +2349,7 @@
         <v>8011</v>
       </c>
       <c r="E47" s="2">
-        <v>2999</v>
+        <v>3025</v>
       </c>
       <c r="F47" s="3">
         <v>0.5660000000000001</v>
@@ -1723,10 +2357,23 @@
       <c r="G47" s="2">
         <v>1697</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="2">
+        <v>2481</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2">
+        <v>2774</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2">
         <v>39078</v>
@@ -1746,10 +2393,23 @@
       <c r="G48" s="2">
         <v>4021</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="2">
+        <v>6053</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2">
+        <v>6350</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2">
         <v>5354</v>
@@ -1769,10 +2429,23 @@
       <c r="G49" s="2">
         <v>583</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="2">
+        <v>806</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2">
+        <v>794</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2">
         <v>10556</v>
@@ -1792,10 +2465,23 @@
       <c r="G50" s="2">
         <v>1180</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="2">
+        <v>1486</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2">
+        <v>1618</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2">
         <v>71671</v>
@@ -1807,7 +2493,7 @@
         <v>38354</v>
       </c>
       <c r="E51" s="2">
-        <v>11608</v>
+        <v>11631</v>
       </c>
       <c r="F51" s="3">
         <v>0.732</v>
@@ -1815,10 +2501,23 @@
       <c r="G51" s="2">
         <v>8502</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="2">
+        <v>9820</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2">
+        <v>10441</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2">
+        <v>10726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2">
         <v>37179</v>
@@ -1830,7 +2529,7 @@
         <v>17346</v>
       </c>
       <c r="E52" s="2">
-        <v>6716</v>
+        <v>6765</v>
       </c>
       <c r="F52" s="3">
         <v>0.52</v>
@@ -1838,10 +2537,23 @@
       <c r="G52" s="2">
         <v>3489</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="2">
+        <v>5750</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2">
+        <v>6237</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2">
         <v>28603</v>
@@ -1853,7 +2565,7 @@
         <v>13586</v>
       </c>
       <c r="E53" s="2">
-        <v>5324</v>
+        <v>5350</v>
       </c>
       <c r="F53" s="3">
         <v>0.544</v>
@@ -1861,10 +2573,23 @@
       <c r="G53" s="2">
         <v>2895</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="2">
+        <v>4695</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
+        <v>4964</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B54" s="2">
         <v>23267</v>
@@ -1876,7 +2601,7 @@
         <v>11155</v>
       </c>
       <c r="E54" s="2">
-        <v>4618</v>
+        <v>4645</v>
       </c>
       <c r="F54" s="3">
         <v>0.7</v>
@@ -1884,10 +2609,23 @@
       <c r="G54" s="2">
         <v>3234</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="2">
+        <v>3991</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2">
+        <v>4101</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B55" s="2">
         <v>29085</v>
@@ -1899,7 +2637,7 @@
         <v>14187</v>
       </c>
       <c r="E55" s="2">
-        <v>5259</v>
+        <v>5285</v>
       </c>
       <c r="F55" s="3">
         <v>0.7</v>
@@ -1907,10 +2645,23 @@
       <c r="G55" s="2">
         <v>3683</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="2">
+        <v>4529</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2">
+        <v>4986</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2">
         <v>21240</v>
@@ -1930,10 +2681,23 @@
       <c r="G56" s="2">
         <v>2646</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="2">
+        <v>3515</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
+        <v>3720</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2">
         <v>15913</v>
@@ -1953,10 +2717,23 @@
       <c r="G57" s="2">
         <v>1837</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="2">
+        <v>2270</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
+        <v>2342</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2">
         <v>20273</v>
@@ -1968,7 +2745,7 @@
         <v>10569</v>
       </c>
       <c r="E58" s="2">
-        <v>4117</v>
+        <v>4141</v>
       </c>
       <c r="F58" s="3">
         <v>0.655</v>
@@ -1976,10 +2753,23 @@
       <c r="G58" s="2">
         <v>2698</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="2">
+        <v>3546</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2">
+        <v>3633</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2">
         <v>133340</v>
@@ -1991,7 +2781,7 @@
         <v>67242</v>
       </c>
       <c r="E59" s="2">
-        <v>24724</v>
+        <v>24816</v>
       </c>
       <c r="F59" s="3">
         <v>0.669</v>
@@ -1999,10 +2789,23 @@
       <c r="G59" s="2">
         <v>16540</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="2">
+        <v>21529</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2">
+        <v>22039</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2">
+        <v>23173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2">
         <v>23483</v>
@@ -2014,7 +2817,7 @@
         <v>10826</v>
       </c>
       <c r="E60" s="2">
-        <v>4100</v>
+        <v>4141</v>
       </c>
       <c r="F60" s="3">
         <v>0.542</v>
@@ -2022,10 +2825,23 @@
       <c r="G60" s="2">
         <v>2224</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="2">
+        <v>3626</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2">
+        <v>3827</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2">
         <v>15123</v>
@@ -2037,7 +2853,7 @@
         <v>6243</v>
       </c>
       <c r="E61" s="2">
-        <v>2249</v>
+        <v>2267</v>
       </c>
       <c r="F61" s="3">
         <v>0.5570000000000001</v>
@@ -2045,10 +2861,23 @@
       <c r="G61" s="2">
         <v>1252</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="2">
+        <v>2002</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
+        <v>2142</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2">
         <v>46323</v>
@@ -2068,10 +2897,23 @@
       <c r="G62" s="2">
         <v>3885</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="2">
+        <v>6644</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2">
+        <v>7503</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2">
+        <v>7261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2">
         <v>22497</v>
@@ -2083,7 +2925,7 @@
         <v>10350</v>
       </c>
       <c r="E63" s="2">
-        <v>3974</v>
+        <v>4007</v>
       </c>
       <c r="F63" s="3">
         <v>0.61</v>
@@ -2091,10 +2933,23 @@
       <c r="G63" s="2">
         <v>2424</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="2">
+        <v>3435</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2">
+        <v>3689</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2">
         <v>25549</v>
@@ -2106,7 +2961,7 @@
         <v>12908</v>
       </c>
       <c r="E64" s="2">
-        <v>4874</v>
+        <v>4928</v>
       </c>
       <c r="F64" s="3">
         <v>0.679</v>
@@ -2114,10 +2969,23 @@
       <c r="G64" s="2">
         <v>3311</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="2">
+        <v>3994</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2">
+        <v>4192</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2">
         <v>31269</v>
@@ -2129,7 +2997,7 @@
         <v>15579</v>
       </c>
       <c r="E65" s="2">
-        <v>5434</v>
+        <v>5477</v>
       </c>
       <c r="F65" s="3">
         <v>0.6559999999999999</v>
@@ -2137,10 +3005,23 @@
       <c r="G65" s="2">
         <v>3565</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="2">
+        <v>4719</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2">
+        <v>4994</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
         <v>335621</v>
@@ -2152,7 +3033,7 @@
         <v>132586</v>
       </c>
       <c r="E66" s="2">
-        <v>55249</v>
+        <v>55484</v>
       </c>
       <c r="F66" s="3">
         <v>0.5920000000000001</v>
@@ -2160,10 +3041,23 @@
       <c r="G66" s="2">
         <v>32728</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="2">
+        <v>48355</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2">
+        <v>50298</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2">
+        <v>51920</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2">
         <v>37469</v>
@@ -2175,7 +3069,7 @@
         <v>16961</v>
       </c>
       <c r="E67" s="2">
-        <v>6360</v>
+        <v>6391</v>
       </c>
       <c r="F67" s="3">
         <v>0.511</v>
@@ -2183,10 +3077,23 @@
       <c r="G67" s="2">
         <v>3252</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="2">
+        <v>5345</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2">
+        <v>5984</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2">
         <v>38993</v>
@@ -2198,7 +3105,7 @@
         <v>20449</v>
       </c>
       <c r="E68" s="2">
-        <v>6753</v>
+        <v>6768</v>
       </c>
       <c r="F68" s="3">
         <v>0.662</v>
@@ -2206,10 +3113,23 @@
       <c r="G68" s="2">
         <v>4473</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="2">
+        <v>5767</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2">
+        <v>6264</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2">
         <v>20196</v>
@@ -2229,10 +3149,23 @@
       <c r="G69" s="2">
         <v>2185</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="2">
+        <v>3182</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2">
+        <v>3556</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2">
         <v>66493</v>
@@ -2244,7 +3177,7 @@
         <v>21469</v>
       </c>
       <c r="E70" s="2">
-        <v>12015</v>
+        <v>12039</v>
       </c>
       <c r="F70" s="3">
         <v>0.425</v>
@@ -2252,10 +3185,23 @@
       <c r="G70" s="2">
         <v>5103</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="2">
+        <v>10169</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2">
+        <v>11540</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2">
+        <v>11104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2">
         <v>74410</v>
@@ -2267,7 +3213,7 @@
         <v>26378</v>
       </c>
       <c r="E71" s="2">
-        <v>12850</v>
+        <v>12968</v>
       </c>
       <c r="F71" s="3">
         <v>0.475</v>
@@ -2275,10 +3221,23 @@
       <c r="G71" s="2">
         <v>6102</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="2">
+        <v>11069</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2">
+        <v>11248</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2">
+        <v>12019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2">
         <v>67158</v>
@@ -2298,10 +3257,23 @@
       <c r="G72" s="2">
         <v>4601</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="2">
+        <v>9811</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2">
+        <v>10896</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2">
+        <v>10724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2">
         <v>28034</v>
@@ -2313,7 +3285,7 @@
         <v>15053</v>
       </c>
       <c r="E73" s="2">
-        <v>4889</v>
+        <v>4928</v>
       </c>
       <c r="F73" s="3">
         <v>0.644</v>
@@ -2321,10 +3293,23 @@
       <c r="G73" s="2">
         <v>3148</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="2">
+        <v>4199</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2">
+        <v>4493</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2">
         <v>34960</v>
@@ -2336,7 +3321,7 @@
         <v>14782</v>
       </c>
       <c r="E74" s="2">
-        <v>6630</v>
+        <v>6678</v>
       </c>
       <c r="F74" s="3">
         <v>0.486</v>
@@ -2344,10 +3329,23 @@
       <c r="G74" s="2">
         <v>3223</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="2">
+        <v>5620</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2">
+        <v>6072</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2">
+        <v>6149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2">
         <v>53847</v>
@@ -2359,7 +3357,7 @@
         <v>23265</v>
       </c>
       <c r="E75" s="2">
-        <v>9283</v>
+        <v>9459</v>
       </c>
       <c r="F75" s="3">
         <v>0.5529999999999999</v>
@@ -2367,10 +3365,23 @@
       <c r="G75" s="2">
         <v>5136</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="2">
+        <v>8213</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2">
+        <v>9110</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2">
+        <v>8836</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2">
         <v>8199</v>
@@ -2390,10 +3401,23 @@
       <c r="G76" s="2">
         <v>1291</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="2">
+        <v>1287</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2">
+        <v>1462</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2">
         <v>21858</v>
@@ -2405,7 +3429,7 @@
         <v>9342</v>
       </c>
       <c r="E77" s="2">
-        <v>4196</v>
+        <v>4277</v>
       </c>
       <c r="F77" s="3">
         <v>0.507</v>
@@ -2413,10 +3437,23 @@
       <c r="G77" s="2">
         <v>2127</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="2">
+        <v>3758</v>
+      </c>
+      <c r="I77" s="3"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2">
+        <v>3738</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2">
         <v>30293</v>
@@ -2436,10 +3473,23 @@
       <c r="G78" s="2">
         <v>3216</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="2">
+        <v>4380</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2">
+        <v>4526</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2">
         <v>33818</v>
@@ -2458,6 +3508,19 @@
       </c>
       <c r="G79" s="2">
         <v>3100</v>
+      </c>
+      <c r="H79" s="2">
+        <v>4933</v>
+      </c>
+      <c r="I79" s="3"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2">
+        <v>5065</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2">
+        <v>5350</v>
       </c>
     </row>
   </sheetData>
